--- a/data/158/MOF/TRADE/COUN/Oceania.xlsx
+++ b/data/158/MOF/TRADE/COUN/Oceania.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SX55"/>
+  <dimension ref="A1:TJ55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2953,6 +2953,66 @@
           <t>2021/12</t>
         </is>
       </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/02</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>2022/05</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2022/07</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>2022/09</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4478,40 +4538,76 @@
         <v>141736990</v>
       </c>
       <c r="SM2" t="n">
-        <v>146032101</v>
+        <v>146031760</v>
       </c>
       <c r="SN2" t="n">
-        <v>172478342</v>
+        <v>172477871</v>
       </c>
       <c r="SO2" t="n">
-        <v>203922331</v>
+        <v>203921632</v>
       </c>
       <c r="SP2" t="n">
-        <v>198625018</v>
+        <v>198622443</v>
       </c>
       <c r="SQ2" t="n">
         <v>158753121</v>
       </c>
       <c r="SR2" t="n">
-        <v>171371221</v>
+        <v>171369665</v>
       </c>
       <c r="SS2" t="n">
-        <v>220084495</v>
+        <v>220081157</v>
       </c>
       <c r="ST2" t="n">
-        <v>163315766</v>
+        <v>163313751</v>
       </c>
       <c r="SU2" t="n">
-        <v>151616050</v>
+        <v>151615300</v>
       </c>
       <c r="SV2" t="n">
-        <v>168293006</v>
+        <v>168296813</v>
       </c>
       <c r="SW2" t="n">
-        <v>229351386</v>
+        <v>229338784</v>
       </c>
       <c r="SX2" t="n">
-        <v>210315613</v>
+        <v>210302932</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>226349390</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6038,40 +6134,76 @@
         <v>391582755</v>
       </c>
       <c r="SM3" t="n">
-        <v>406370692</v>
+        <v>413177422</v>
       </c>
       <c r="SN3" t="n">
-        <v>377795909</v>
+        <v>383012335</v>
       </c>
       <c r="SO3" t="n">
-        <v>416667378</v>
+        <v>423206445</v>
       </c>
       <c r="SP3" t="n">
-        <v>426925200</v>
+        <v>434979670</v>
       </c>
       <c r="SQ3" t="n">
-        <v>453252506</v>
+        <v>460321297</v>
       </c>
       <c r="SR3" t="n">
-        <v>469714724</v>
+        <v>473977608</v>
       </c>
       <c r="SS3" t="n">
-        <v>519549974</v>
+        <v>524929422</v>
       </c>
       <c r="ST3" t="n">
-        <v>581789161</v>
+        <v>585656212</v>
       </c>
       <c r="SU3" t="n">
-        <v>605508769</v>
+        <v>605997587</v>
       </c>
       <c r="SV3" t="n">
-        <v>616776757</v>
+        <v>612679339</v>
       </c>
       <c r="SW3" t="n">
-        <v>699728992</v>
+        <v>697553085</v>
       </c>
       <c r="SX3" t="n">
-        <v>798862689</v>
+        <v>796985955</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>785626499</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7601,10 +7733,10 @@
         <v>119079980</v>
       </c>
       <c r="SN4" t="n">
-        <v>131976737</v>
+        <v>131976407</v>
       </c>
       <c r="SO4" t="n">
-        <v>160232525</v>
+        <v>160232526</v>
       </c>
       <c r="SP4" t="n">
         <v>159856518</v>
@@ -7619,19 +7751,55 @@
         <v>181518120</v>
       </c>
       <c r="ST4" t="n">
-        <v>112793690</v>
+        <v>112792055</v>
       </c>
       <c r="SU4" t="n">
-        <v>108222585</v>
+        <v>108221835</v>
       </c>
       <c r="SV4" t="n">
-        <v>117468953</v>
+        <v>117475883</v>
       </c>
       <c r="SW4" t="n">
         <v>175403113</v>
       </c>
       <c r="SX4" t="n">
-        <v>168863140</v>
+        <v>168861793</v>
+      </c>
+      <c r="SY4" t="n">
+        <v>166378160</v>
+      </c>
+      <c r="SZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9158,40 +9326,76 @@
         <v>360234004</v>
       </c>
       <c r="SM5" t="n">
-        <v>369007326</v>
+        <v>375168668</v>
       </c>
       <c r="SN5" t="n">
-        <v>327931184</v>
+        <v>332427007</v>
       </c>
       <c r="SO5" t="n">
-        <v>370522708</v>
+        <v>376535517</v>
       </c>
       <c r="SP5" t="n">
-        <v>373772695</v>
+        <v>381427411</v>
       </c>
       <c r="SQ5" t="n">
-        <v>402371917</v>
+        <v>409313976</v>
       </c>
       <c r="SR5" t="n">
-        <v>412049892</v>
+        <v>416565942</v>
       </c>
       <c r="SS5" t="n">
-        <v>459473976</v>
+        <v>464857392</v>
       </c>
       <c r="ST5" t="n">
-        <v>526401320</v>
+        <v>530284919</v>
       </c>
       <c r="SU5" t="n">
-        <v>543998235</v>
+        <v>544441923</v>
       </c>
       <c r="SV5" t="n">
-        <v>564616473</v>
+        <v>560523264</v>
       </c>
       <c r="SW5" t="n">
-        <v>641597423</v>
+        <v>639397029</v>
       </c>
       <c r="SX5" t="n">
-        <v>705040446</v>
+        <v>702760860</v>
+      </c>
+      <c r="SY5" t="n">
+        <v>728067586</v>
+      </c>
+      <c r="SZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10724,10 +10928,10 @@
         <v>1644380</v>
       </c>
       <c r="SO6" t="n">
-        <v>1410285</v>
+        <v>1409987</v>
       </c>
       <c r="SP6" t="n">
-        <v>1908575</v>
+        <v>1907585</v>
       </c>
       <c r="SQ6" t="n">
         <v>1811036</v>
@@ -10752,6 +10956,42 @@
       </c>
       <c r="SX6" t="n">
         <v>1803341</v>
+      </c>
+      <c r="SY6" t="n">
+        <v>2739482</v>
+      </c>
+      <c r="SZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -12278,31 +12518,31 @@
         <v>10245169</v>
       </c>
       <c r="SM7" t="n">
-        <v>18358363</v>
+        <v>18824901</v>
       </c>
       <c r="SN7" t="n">
-        <v>32913941</v>
+        <v>33538634</v>
       </c>
       <c r="SO7" t="n">
-        <v>20994332</v>
+        <v>21238310</v>
       </c>
       <c r="SP7" t="n">
-        <v>16464419</v>
+        <v>16450631</v>
       </c>
       <c r="SQ7" t="n">
-        <v>23659525</v>
+        <v>23613655</v>
       </c>
       <c r="SR7" t="n">
-        <v>22691451</v>
+        <v>22416980</v>
       </c>
       <c r="SS7" t="n">
-        <v>28455353</v>
+        <v>28421772</v>
       </c>
       <c r="ST7" t="n">
-        <v>22002640</v>
+        <v>21968099</v>
       </c>
       <c r="SU7" t="n">
-        <v>31581642</v>
+        <v>31618261</v>
       </c>
       <c r="SV7" t="n">
         <v>25127961</v>
@@ -12311,7 +12551,43 @@
         <v>25877623</v>
       </c>
       <c r="SX7" t="n">
-        <v>63385510</v>
+        <v>63782502</v>
+      </c>
+      <c r="SY7" t="n">
+        <v>29756440</v>
+      </c>
+      <c r="SZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -13873,6 +14149,42 @@
       <c r="SX8" t="n">
         <v>8885</v>
       </c>
+      <c r="SY8" t="n">
+        <v>2522</v>
+      </c>
+      <c r="SZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -15433,6 +15745,42 @@
       <c r="SX9" t="n">
         <v>0</v>
       </c>
+      <c r="SY9" t="n">
+        <v>764</v>
+      </c>
+      <c r="SZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -16961,22 +17309,22 @@
         <v>19079721</v>
       </c>
       <c r="SN10" t="n">
-        <v>20670957</v>
+        <v>20670475</v>
       </c>
       <c r="SO10" t="n">
         <v>24591043</v>
       </c>
       <c r="SP10" t="n">
-        <v>26314084</v>
+        <v>26312499</v>
       </c>
       <c r="SQ10" t="n">
         <v>24270656</v>
       </c>
       <c r="SR10" t="n">
-        <v>25218210</v>
+        <v>25216654</v>
       </c>
       <c r="SS10" t="n">
-        <v>29988342</v>
+        <v>29986463</v>
       </c>
       <c r="ST10" t="n">
         <v>27822558</v>
@@ -16985,13 +17333,49 @@
         <v>25590263</v>
       </c>
       <c r="SV10" t="n">
-        <v>34724083</v>
+        <v>34721996</v>
       </c>
       <c r="SW10" t="n">
-        <v>30398366</v>
+        <v>30385764</v>
       </c>
       <c r="SX10" t="n">
-        <v>32199580</v>
+        <v>32188246</v>
+      </c>
+      <c r="SY10" t="n">
+        <v>27939425</v>
+      </c>
+      <c r="SZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -18518,40 +18902,76 @@
         <v>17892143</v>
       </c>
       <c r="SM11" t="n">
-        <v>16610411</v>
+        <v>16762830</v>
       </c>
       <c r="SN11" t="n">
-        <v>14794745</v>
+        <v>14892000</v>
       </c>
       <c r="SO11" t="n">
-        <v>21973783</v>
+        <v>22134364</v>
       </c>
       <c r="SP11" t="n">
-        <v>32738208</v>
+        <v>33114190</v>
       </c>
       <c r="SQ11" t="n">
-        <v>24742000</v>
+        <v>24923575</v>
       </c>
       <c r="SR11" t="n">
-        <v>30999051</v>
+        <v>31078749</v>
       </c>
       <c r="SS11" t="n">
-        <v>28697137</v>
+        <v>28726750</v>
       </c>
       <c r="ST11" t="n">
-        <v>29638966</v>
+        <v>29652449</v>
       </c>
       <c r="SU11" t="n">
-        <v>26251076</v>
+        <v>26250321</v>
       </c>
       <c r="SV11" t="n">
-        <v>23035854</v>
+        <v>23004595</v>
       </c>
       <c r="SW11" t="n">
-        <v>27914008</v>
+        <v>27936245</v>
       </c>
       <c r="SX11" t="n">
-        <v>24935729</v>
+        <v>24939591</v>
+      </c>
+      <c r="SY11" t="n">
+        <v>24527696</v>
+      </c>
+      <c r="SZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -20113,6 +20533,42 @@
       <c r="SX12" t="n">
         <v>5963</v>
       </c>
+      <c r="SY12" t="n">
+        <v>11700</v>
+      </c>
+      <c r="SZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -21673,6 +22129,42 @@
       <c r="SX13" t="n">
         <v>41804</v>
       </c>
+      <c r="SY13" t="n">
+        <v>99483</v>
+      </c>
+      <c r="SZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -23233,6 +23725,42 @@
       <c r="SX14" t="n">
         <v>0</v>
       </c>
+      <c r="SY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -24793,6 +25321,42 @@
       <c r="SX15" t="n">
         <v>0</v>
       </c>
+      <c r="SY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -26353,6 +26917,42 @@
       <c r="SX16" t="n">
         <v>30500</v>
       </c>
+      <c r="SY16" t="n">
+        <v>115730</v>
+      </c>
+      <c r="SZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -27913,6 +28513,42 @@
       <c r="SX17" t="n">
         <v>396</v>
       </c>
+      <c r="SY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -29473,6 +30109,42 @@
       <c r="SX18" t="n">
         <v>109899</v>
       </c>
+      <c r="SY18" t="n">
+        <v>55214</v>
+      </c>
+      <c r="SZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -31033,6 +31705,42 @@
       <c r="SX19" t="n">
         <v>0</v>
       </c>
+      <c r="SY19" t="n">
+        <v>287</v>
+      </c>
+      <c r="SZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -32593,6 +33301,42 @@
       <c r="SX20" t="n">
         <v>74461</v>
       </c>
+      <c r="SY20" t="n">
+        <v>29569</v>
+      </c>
+      <c r="SZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -34153,6 +34897,42 @@
       <c r="SX21" t="n">
         <v>1098997</v>
       </c>
+      <c r="SY21" t="n">
+        <v>290632</v>
+      </c>
+      <c r="SZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -35713,6 +36493,42 @@
       <c r="SX22" t="n">
         <v>689858</v>
       </c>
+      <c r="SY22" t="n">
+        <v>517981</v>
+      </c>
+      <c r="SZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -37262,7 +38078,7 @@
         <v>152699</v>
       </c>
       <c r="SU23" t="n">
-        <v>534059</v>
+        <v>534160</v>
       </c>
       <c r="SV23" t="n">
         <v>126858</v>
@@ -37272,6 +38088,42 @@
       </c>
       <c r="SX23" t="n">
         <v>174692</v>
+      </c>
+      <c r="SY23" t="n">
+        <v>467784</v>
+      </c>
+      <c r="SZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -38819,7 +39671,7 @@
         <v>46604</v>
       </c>
       <c r="ST24" t="n">
-        <v>296934</v>
+        <v>296554</v>
       </c>
       <c r="SU24" t="n">
         <v>163745</v>
@@ -38832,6 +39684,42 @@
       </c>
       <c r="SX24" t="n">
         <v>141365</v>
+      </c>
+      <c r="SY24" t="n">
+        <v>43662</v>
+      </c>
+      <c r="SZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -40393,6 +41281,42 @@
       <c r="SX25" t="n">
         <v>0</v>
       </c>
+      <c r="SY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -41953,6 +42877,42 @@
       <c r="SX26" t="n">
         <v>108774</v>
       </c>
+      <c r="SY26" t="n">
+        <v>22569</v>
+      </c>
+      <c r="SZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -43511,7 +44471,43 @@
         <v>12164</v>
       </c>
       <c r="SX27" t="n">
-        <v>16763</v>
+        <v>18761</v>
+      </c>
+      <c r="SY27" t="n">
+        <v>8657</v>
+      </c>
+      <c r="SZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -45073,6 +46069,42 @@
       <c r="SX28" t="n">
         <v>78587</v>
       </c>
+      <c r="SY28" t="n">
+        <v>54823</v>
+      </c>
+      <c r="SZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -46633,6 +47665,42 @@
       <c r="SX29" t="n">
         <v>57161</v>
       </c>
+      <c r="SY29" t="n">
+        <v>104979</v>
+      </c>
+      <c r="SZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -48193,6 +49261,42 @@
       <c r="SX30" t="n">
         <v>0</v>
       </c>
+      <c r="SY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -49753,6 +50857,42 @@
       <c r="SX31" t="n">
         <v>0</v>
       </c>
+      <c r="SY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -51313,6 +52453,42 @@
       <c r="SX32" t="n">
         <v>14485</v>
       </c>
+      <c r="SY32" t="n">
+        <v>36121</v>
+      </c>
+      <c r="SZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -52873,6 +54049,42 @@
       <c r="SX33" t="n">
         <v>6957</v>
       </c>
+      <c r="SY33" t="n">
+        <v>13731</v>
+      </c>
+      <c r="SZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -54433,6 +55645,42 @@
       <c r="SX34" t="n">
         <v>278435</v>
       </c>
+      <c r="SY34" t="n">
+        <v>194917</v>
+      </c>
+      <c r="SZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -55958,40 +57206,76 @@
         <v>2119782</v>
       </c>
       <c r="SM35" t="n">
-        <v>1345778</v>
+        <v>1372209</v>
       </c>
       <c r="SN35" t="n">
-        <v>247568</v>
+        <v>246223</v>
       </c>
       <c r="SO35" t="n">
-        <v>1537713</v>
+        <v>1659412</v>
       </c>
       <c r="SP35" t="n">
-        <v>2434308</v>
+        <v>2471868</v>
       </c>
       <c r="SQ35" t="n">
-        <v>1400044</v>
+        <v>1391071</v>
       </c>
       <c r="SR35" t="n">
-        <v>2900265</v>
+        <v>2841872</v>
       </c>
       <c r="SS35" t="n">
         <v>1354441</v>
       </c>
       <c r="ST35" t="n">
-        <v>2793804</v>
+        <v>2798314</v>
       </c>
       <c r="SU35" t="n">
-        <v>2017081</v>
+        <v>2026246</v>
       </c>
       <c r="SV35" t="n">
-        <v>2741784</v>
+        <v>2768834</v>
       </c>
       <c r="SW35" t="n">
-        <v>2840499</v>
+        <v>2842749</v>
       </c>
       <c r="SX35" t="n">
         <v>3685103</v>
+      </c>
+      <c r="SY35" t="n">
+        <v>1427220</v>
+      </c>
+      <c r="SZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -57518,10 +58802,10 @@
         <v>166030</v>
       </c>
       <c r="SM36" t="n">
-        <v>42947</v>
+        <v>42606</v>
       </c>
       <c r="SN36" t="n">
-        <v>257666</v>
+        <v>258007</v>
       </c>
       <c r="SO36" t="n">
         <v>165410</v>
@@ -57552,6 +58836,42 @@
       </c>
       <c r="SX36" t="n">
         <v>234637</v>
+      </c>
+      <c r="SY36" t="n">
+        <v>128563</v>
+      </c>
+      <c r="SZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -59113,6 +60433,42 @@
       <c r="SX37" t="n">
         <v>368495</v>
       </c>
+      <c r="SY37" t="n">
+        <v>320954</v>
+      </c>
+      <c r="SZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -60644,7 +62000,7 @@
         <v>1766432</v>
       </c>
       <c r="SO38" t="n">
-        <v>1612195</v>
+        <v>1611793</v>
       </c>
       <c r="SP38" t="n">
         <v>710876</v>
@@ -60672,6 +62028,42 @@
       </c>
       <c r="SX38" t="n">
         <v>986975</v>
+      </c>
+      <c r="SY38" t="n">
+        <v>786279</v>
+      </c>
+      <c r="SZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -62233,6 +63625,42 @@
       <c r="SX39" t="n">
         <v>6265</v>
       </c>
+      <c r="SY39" t="n">
+        <v>4434</v>
+      </c>
+      <c r="SZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -63793,6 +65221,42 @@
       <c r="SX40" t="n">
         <v>52766</v>
       </c>
+      <c r="SY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -65353,6 +66817,42 @@
       <c r="SX41" t="n">
         <v>0</v>
       </c>
+      <c r="SY41" t="n">
+        <v>7473</v>
+      </c>
+      <c r="SZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -66913,6 +68413,42 @@
       <c r="SX42" t="n">
         <v>0</v>
       </c>
+      <c r="SY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -68473,6 +70009,42 @@
       <c r="SX43" t="n">
         <v>0</v>
       </c>
+      <c r="SY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -70033,6 +71605,42 @@
       <c r="SX44" t="n">
         <v>0</v>
       </c>
+      <c r="SY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -71593,6 +73201,42 @@
       <c r="SX45" t="n">
         <v>0</v>
       </c>
+      <c r="SY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -73153,6 +74797,42 @@
       <c r="SX46" t="n">
         <v>47408</v>
       </c>
+      <c r="SY46" t="n">
+        <v>21951</v>
+      </c>
+      <c r="SZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -74713,6 +76393,42 @@
       <c r="SX47" t="n">
         <v>2250</v>
       </c>
+      <c r="SY47" t="n">
+        <v>2499</v>
+      </c>
+      <c r="SZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -76273,6 +77989,42 @@
       <c r="SX48" t="n">
         <v>4209226</v>
       </c>
+      <c r="SY48" t="n">
+        <v>27057491</v>
+      </c>
+      <c r="SZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -77833,6 +79585,42 @@
       <c r="SX49" t="n">
         <v>14411</v>
       </c>
+      <c r="SY49" t="n">
+        <v>411806</v>
+      </c>
+      <c r="SZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -79376,7 +81164,7 @@
         <v>84823</v>
       </c>
       <c r="SS50" t="n">
-        <v>285489</v>
+        <v>284030</v>
       </c>
       <c r="ST50" t="n">
         <v>101345</v>
@@ -79392,6 +81180,42 @@
       </c>
       <c r="SX50" t="n">
         <v>137473</v>
+      </c>
+      <c r="SY50" t="n">
+        <v>87006</v>
+      </c>
+      <c r="SZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -80953,6 +82777,42 @@
       <c r="SX51" t="n">
         <v>26295</v>
       </c>
+      <c r="SY51" t="n">
+        <v>109767</v>
+      </c>
+      <c r="SZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -82505,13 +84365,49 @@
         <v>71852</v>
       </c>
       <c r="SV52" t="n">
-        <v>273430</v>
+        <v>272394</v>
       </c>
       <c r="SW52" t="n">
         <v>169585</v>
       </c>
       <c r="SX52" t="n">
         <v>144297</v>
+      </c>
+      <c r="SY52" t="n">
+        <v>95126</v>
+      </c>
+      <c r="SZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -84073,6 +85969,42 @@
       <c r="SX53" t="n">
         <v>310</v>
       </c>
+      <c r="SY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -85633,6 +87565,42 @@
       <c r="SX54" t="n">
         <v>95558</v>
       </c>
+      <c r="SY54" t="n">
+        <v>31099</v>
+      </c>
+      <c r="SZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -87193,6 +89161,42 @@
       <c r="SX55" t="n">
         <v>1105</v>
       </c>
+      <c r="SY55" t="n">
+        <v>4307</v>
+      </c>
+      <c r="SZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ55" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/158/MOF/TRADE/COUN/Oceania.xlsx
+++ b/data/158/MOF/TRADE/COUN/Oceania.xlsx
@@ -4577,7 +4577,7 @@
         <v>226349390</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0</v>
+        <v>195548091</v>
       </c>
       <c r="TA2" t="n">
         <v>0</v>
@@ -6170,10 +6170,10 @@
         <v>796985955</v>
       </c>
       <c r="SY3" t="n">
-        <v>785626499</v>
+        <v>785714245</v>
       </c>
       <c r="SZ3" t="n">
-        <v>0</v>
+        <v>726462861</v>
       </c>
       <c r="TA3" t="n">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>166378160</v>
       </c>
       <c r="SZ4" t="n">
-        <v>0</v>
+        <v>156384290</v>
       </c>
       <c r="TA4" t="n">
         <v>0</v>
@@ -9362,10 +9362,10 @@
         <v>702760860</v>
       </c>
       <c r="SY5" t="n">
-        <v>728067586</v>
+        <v>728086811</v>
       </c>
       <c r="SZ5" t="n">
-        <v>0</v>
+        <v>654633775</v>
       </c>
       <c r="TA5" t="n">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>2739482</v>
       </c>
       <c r="SZ6" t="n">
-        <v>0</v>
+        <v>1624166</v>
       </c>
       <c r="TA6" t="n">
         <v>0</v>
@@ -12554,10 +12554,10 @@
         <v>63782502</v>
       </c>
       <c r="SY7" t="n">
-        <v>29756440</v>
+        <v>29830867</v>
       </c>
       <c r="SZ7" t="n">
-        <v>0</v>
+        <v>49752813</v>
       </c>
       <c r="TA7" t="n">
         <v>0</v>
@@ -14153,7 +14153,7 @@
         <v>2522</v>
       </c>
       <c r="SZ8" t="n">
-        <v>0</v>
+        <v>6012</v>
       </c>
       <c r="TA8" t="n">
         <v>0</v>
@@ -17345,7 +17345,7 @@
         <v>27939425</v>
       </c>
       <c r="SZ10" t="n">
-        <v>0</v>
+        <v>27083667</v>
       </c>
       <c r="TA10" t="n">
         <v>0</v>
@@ -18938,10 +18938,10 @@
         <v>24939591</v>
       </c>
       <c r="SY11" t="n">
-        <v>24527696</v>
+        <v>24521790</v>
       </c>
       <c r="SZ11" t="n">
-        <v>0</v>
+        <v>17956628</v>
       </c>
       <c r="TA11" t="n">
         <v>0</v>
@@ -20537,7 +20537,7 @@
         <v>11700</v>
       </c>
       <c r="SZ12" t="n">
-        <v>0</v>
+        <v>14156</v>
       </c>
       <c r="TA12" t="n">
         <v>0</v>
@@ -22133,7 +22133,7 @@
         <v>99483</v>
       </c>
       <c r="SZ13" t="n">
-        <v>0</v>
+        <v>267117</v>
       </c>
       <c r="TA13" t="n">
         <v>0</v>
@@ -26921,7 +26921,7 @@
         <v>115730</v>
       </c>
       <c r="SZ16" t="n">
-        <v>0</v>
+        <v>10457</v>
       </c>
       <c r="TA16" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="SZ17" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="TA17" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>55214</v>
       </c>
       <c r="SZ18" t="n">
-        <v>0</v>
+        <v>58388</v>
       </c>
       <c r="TA18" t="n">
         <v>0</v>
@@ -33305,7 +33305,7 @@
         <v>29569</v>
       </c>
       <c r="SZ20" t="n">
-        <v>0</v>
+        <v>52043</v>
       </c>
       <c r="TA20" t="n">
         <v>0</v>
@@ -34901,7 +34901,7 @@
         <v>290632</v>
       </c>
       <c r="SZ21" t="n">
-        <v>0</v>
+        <v>422063</v>
       </c>
       <c r="TA21" t="n">
         <v>0</v>
@@ -36497,7 +36497,7 @@
         <v>517981</v>
       </c>
       <c r="SZ22" t="n">
-        <v>0</v>
+        <v>443957</v>
       </c>
       <c r="TA22" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>467784</v>
       </c>
       <c r="SZ23" t="n">
-        <v>0</v>
+        <v>78691</v>
       </c>
       <c r="TA23" t="n">
         <v>0</v>
@@ -39689,7 +39689,7 @@
         <v>43662</v>
       </c>
       <c r="SZ24" t="n">
-        <v>0</v>
+        <v>133379</v>
       </c>
       <c r="TA24" t="n">
         <v>0</v>
@@ -41285,7 +41285,7 @@
         <v>0</v>
       </c>
       <c r="SZ25" t="n">
-        <v>0</v>
+        <v>22340</v>
       </c>
       <c r="TA25" t="n">
         <v>0</v>
@@ -42881,7 +42881,7 @@
         <v>22569</v>
       </c>
       <c r="SZ26" t="n">
-        <v>0</v>
+        <v>61178</v>
       </c>
       <c r="TA26" t="n">
         <v>0</v>
@@ -44477,7 +44477,7 @@
         <v>8657</v>
       </c>
       <c r="SZ27" t="n">
-        <v>0</v>
+        <v>4140</v>
       </c>
       <c r="TA27" t="n">
         <v>0</v>
@@ -46073,7 +46073,7 @@
         <v>54823</v>
       </c>
       <c r="SZ28" t="n">
-        <v>0</v>
+        <v>65219</v>
       </c>
       <c r="TA28" t="n">
         <v>0</v>
@@ -47669,7 +47669,7 @@
         <v>104979</v>
       </c>
       <c r="SZ29" t="n">
-        <v>0</v>
+        <v>74297</v>
       </c>
       <c r="TA29" t="n">
         <v>0</v>
@@ -52457,7 +52457,7 @@
         <v>36121</v>
       </c>
       <c r="SZ32" t="n">
-        <v>0</v>
+        <v>16749</v>
       </c>
       <c r="TA32" t="n">
         <v>0</v>
@@ -54053,7 +54053,7 @@
         <v>13731</v>
       </c>
       <c r="SZ33" t="n">
-        <v>0</v>
+        <v>54238</v>
       </c>
       <c r="TA33" t="n">
         <v>0</v>
@@ -55649,7 +55649,7 @@
         <v>194917</v>
       </c>
       <c r="SZ34" t="n">
-        <v>0</v>
+        <v>365726</v>
       </c>
       <c r="TA34" t="n">
         <v>0</v>
@@ -57245,7 +57245,7 @@
         <v>1427220</v>
       </c>
       <c r="SZ35" t="n">
-        <v>0</v>
+        <v>2888078</v>
       </c>
       <c r="TA35" t="n">
         <v>0</v>
@@ -58841,7 +58841,7 @@
         <v>128563</v>
       </c>
       <c r="SZ36" t="n">
-        <v>0</v>
+        <v>199588</v>
       </c>
       <c r="TA36" t="n">
         <v>0</v>
@@ -60437,7 +60437,7 @@
         <v>320954</v>
       </c>
       <c r="SZ37" t="n">
-        <v>0</v>
+        <v>271022</v>
       </c>
       <c r="TA37" t="n">
         <v>0</v>
@@ -62033,7 +62033,7 @@
         <v>786279</v>
       </c>
       <c r="SZ38" t="n">
-        <v>0</v>
+        <v>4342675</v>
       </c>
       <c r="TA38" t="n">
         <v>0</v>
@@ -63629,7 +63629,7 @@
         <v>4434</v>
       </c>
       <c r="SZ39" t="n">
-        <v>0</v>
+        <v>7431</v>
       </c>
       <c r="TA39" t="n">
         <v>0</v>
@@ -65225,7 +65225,7 @@
         <v>0</v>
       </c>
       <c r="SZ40" t="n">
-        <v>0</v>
+        <v>27278</v>
       </c>
       <c r="TA40" t="n">
         <v>0</v>
@@ -66821,7 +66821,7 @@
         <v>7473</v>
       </c>
       <c r="SZ41" t="n">
-        <v>0</v>
+        <v>1601</v>
       </c>
       <c r="TA41" t="n">
         <v>0</v>
@@ -70013,7 +70013,7 @@
         <v>0</v>
       </c>
       <c r="SZ43" t="n">
-        <v>0</v>
+        <v>1909</v>
       </c>
       <c r="TA43" t="n">
         <v>0</v>
@@ -74801,7 +74801,7 @@
         <v>21951</v>
       </c>
       <c r="SZ46" t="n">
-        <v>0</v>
+        <v>61111</v>
       </c>
       <c r="TA46" t="n">
         <v>0</v>
@@ -77993,7 +77993,7 @@
         <v>27057491</v>
       </c>
       <c r="SZ48" t="n">
-        <v>0</v>
+        <v>3237845</v>
       </c>
       <c r="TA48" t="n">
         <v>0</v>
@@ -79589,7 +79589,7 @@
         <v>411806</v>
       </c>
       <c r="SZ49" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="TA49" t="n">
         <v>0</v>
@@ -81185,7 +81185,7 @@
         <v>87006</v>
       </c>
       <c r="SZ50" t="n">
-        <v>0</v>
+        <v>124369</v>
       </c>
       <c r="TA50" t="n">
         <v>0</v>
@@ -82781,7 +82781,7 @@
         <v>109767</v>
       </c>
       <c r="SZ51" t="n">
-        <v>0</v>
+        <v>24519</v>
       </c>
       <c r="TA51" t="n">
         <v>0</v>
@@ -84377,7 +84377,7 @@
         <v>95126</v>
       </c>
       <c r="SZ52" t="n">
-        <v>0</v>
+        <v>1138297</v>
       </c>
       <c r="TA52" t="n">
         <v>0</v>
@@ -87569,7 +87569,7 @@
         <v>31099</v>
       </c>
       <c r="SZ54" t="n">
-        <v>0</v>
+        <v>97541</v>
       </c>
       <c r="TA54" t="n">
         <v>0</v>
@@ -89165,7 +89165,7 @@
         <v>4307</v>
       </c>
       <c r="SZ55" t="n">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="TA55" t="n">
         <v>0</v>
